--- a/pred_ohlcv/54/2019-10-19 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 LAMB ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H303"/>
+  <dimension ref="A1:I283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="C2" t="n">
         <v>35.2</v>
       </c>
       <c r="D2" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="E2" t="n">
         <v>35.2</v>
       </c>
       <c r="F2" t="n">
-        <v>1500</v>
+        <v>14537</v>
       </c>
       <c r="G2" t="n">
-        <v>35.78499999999995</v>
+        <v>35.79499999999996</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="C3" t="n">
         <v>35.2</v>
       </c>
       <c r="D3" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="E3" t="n">
         <v>35.2</v>
       </c>
       <c r="F3" t="n">
-        <v>11064.353</v>
+        <v>1500</v>
       </c>
       <c r="G3" t="n">
-        <v>35.77333333333328</v>
+        <v>35.78499999999995</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>35.2</v>
       </c>
       <c r="F4" t="n">
-        <v>12209.7509</v>
+        <v>11064.353</v>
       </c>
       <c r="G4" t="n">
-        <v>35.75999999999995</v>
+        <v>35.77333333333328</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,21 +503,24 @@
         <v>35.2</v>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="D5" t="n">
         <v>35.2</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="F5" t="n">
-        <v>7754.0753</v>
+        <v>12209.7509</v>
       </c>
       <c r="G5" t="n">
-        <v>35.74166666666661</v>
+        <v>35.75999999999995</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -515,21 +532,24 @@
         <v>35.2</v>
       </c>
       <c r="C6" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
         <v>35.2</v>
       </c>
       <c r="E6" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>16.817</v>
+        <v>7754.0753</v>
       </c>
       <c r="G6" t="n">
-        <v>35.72999999999994</v>
+        <v>35.74166666666661</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>35.2</v>
       </c>
       <c r="F7" t="n">
-        <v>246.341</v>
+        <v>16.817</v>
       </c>
       <c r="G7" t="n">
-        <v>35.71499999999994</v>
+        <v>35.72999999999994</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -567,21 +590,24 @@
         <v>35.2</v>
       </c>
       <c r="C8" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="D8" t="n">
         <v>35.2</v>
       </c>
       <c r="E8" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="F8" t="n">
-        <v>500</v>
+        <v>246.341</v>
       </c>
       <c r="G8" t="n">
-        <v>35.69666666666661</v>
+        <v>35.71499999999994</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="C9" t="n">
         <v>35.1</v>
       </c>
       <c r="D9" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="E9" t="n">
         <v>35.1</v>
       </c>
       <c r="F9" t="n">
-        <v>1328.4145</v>
+        <v>500</v>
       </c>
       <c r="G9" t="n">
-        <v>35.67999999999994</v>
+        <v>35.69666666666661</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +648,24 @@
         <v>35.1</v>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D10" t="n">
         <v>35.1</v>
       </c>
       <c r="E10" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F10" t="n">
-        <v>17300.7539</v>
+        <v>1328.4145</v>
       </c>
       <c r="G10" t="n">
-        <v>35.66333333333328</v>
+        <v>35.67999999999994</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C11" t="n">
         <v>35</v>
       </c>
-      <c r="C11" t="n">
-        <v>34.9</v>
-      </c>
       <c r="D11" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="E11" t="n">
         <v>35</v>
       </c>
-      <c r="E11" t="n">
-        <v>34.9</v>
-      </c>
       <c r="F11" t="n">
-        <v>13200</v>
+        <v>17300.7539</v>
       </c>
       <c r="G11" t="n">
-        <v>35.64499999999995</v>
+        <v>35.66333333333328</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>35</v>
+      </c>
+      <c r="C12" t="n">
         <v>34.9</v>
       </c>
-      <c r="C12" t="n">
-        <v>34.8</v>
-      </c>
       <c r="D12" t="n">
+        <v>35</v>
+      </c>
+      <c r="E12" t="n">
         <v>34.9</v>
       </c>
-      <c r="E12" t="n">
-        <v>34.8</v>
-      </c>
       <c r="F12" t="n">
-        <v>83524.9323</v>
+        <v>13200</v>
       </c>
       <c r="G12" t="n">
-        <v>35.62499999999995</v>
+        <v>35.64499999999995</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C13" t="n">
         <v>34.8</v>
       </c>
       <c r="D13" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E13" t="n">
         <v>34.8</v>
       </c>
       <c r="F13" t="n">
-        <v>1000</v>
+        <v>83524.9323</v>
       </c>
       <c r="G13" t="n">
-        <v>35.60499999999995</v>
+        <v>35.62499999999995</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -723,21 +764,24 @@
         <v>34.8</v>
       </c>
       <c r="C14" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D14" t="n">
         <v>34.8</v>
       </c>
       <c r="E14" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F14" t="n">
-        <v>39139.9148</v>
+        <v>1000</v>
       </c>
       <c r="G14" t="n">
-        <v>35.58499999999994</v>
+        <v>35.60499999999995</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C15" t="n">
         <v>34.7</v>
       </c>
       <c r="D15" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E15" t="n">
         <v>34.7</v>
       </c>
       <c r="F15" t="n">
-        <v>10639.6778</v>
+        <v>39139.9148</v>
       </c>
       <c r="G15" t="n">
-        <v>35.56166666666661</v>
+        <v>35.58499999999994</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>34.7</v>
       </c>
       <c r="F16" t="n">
-        <v>7268.7105</v>
+        <v>10639.6778</v>
       </c>
       <c r="G16" t="n">
-        <v>35.53999999999994</v>
+        <v>35.56166666666661</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>34.7</v>
       </c>
       <c r="F17" t="n">
-        <v>3500</v>
+        <v>7268.7105</v>
       </c>
       <c r="G17" t="n">
-        <v>35.51666666666661</v>
+        <v>35.53999999999994</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -827,21 +880,24 @@
         <v>34.7</v>
       </c>
       <c r="C18" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="D18" t="n">
         <v>34.7</v>
       </c>
       <c r="E18" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="F18" t="n">
-        <v>8302.7907</v>
+        <v>3500</v>
       </c>
       <c r="G18" t="n">
-        <v>35.49333333333327</v>
+        <v>35.51666666666661</v>
       </c>
       <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="C19" t="n">
         <v>34.5</v>
       </c>
       <c r="D19" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="E19" t="n">
         <v>34.5</v>
       </c>
       <c r="F19" t="n">
-        <v>17917.3354</v>
+        <v>8302.7907</v>
       </c>
       <c r="G19" t="n">
-        <v>35.4666666666666</v>
+        <v>35.49333333333327</v>
       </c>
       <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C20" t="n">
         <v>34.5</v>
@@ -885,15 +944,18 @@
         <v>34.5</v>
       </c>
       <c r="E20" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F20" t="n">
-        <v>12356.2527</v>
+        <v>17917.3354</v>
       </c>
       <c r="G20" t="n">
-        <v>35.43499999999994</v>
+        <v>35.4666666666666</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,7 +964,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C21" t="n">
         <v>34.5</v>
@@ -911,15 +973,18 @@
         <v>34.5</v>
       </c>
       <c r="E21" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5054999999999999</v>
+        <v>12356.2527</v>
       </c>
       <c r="G21" t="n">
-        <v>35.40333333333327</v>
+        <v>35.43499999999994</v>
       </c>
       <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="C22" t="n">
-        <v>34.8</v>
+        <v>34.5</v>
       </c>
       <c r="D22" t="n">
-        <v>34.8</v>
+        <v>34.5</v>
       </c>
       <c r="E22" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="F22" t="n">
-        <v>24</v>
+        <v>0.5054999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>35.37166666666661</v>
+        <v>35.40333333333327</v>
       </c>
       <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="C23" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="D23" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="E23" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="F23" t="n">
-        <v>972.9761999999999</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>35.33499999999994</v>
+        <v>35.37166666666661</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>34.6</v>
       </c>
       <c r="F24" t="n">
-        <v>885.9635</v>
+        <v>972.9761999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>35.3116666666666</v>
+        <v>35.33499999999994</v>
       </c>
       <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>34.6</v>
       </c>
       <c r="F25" t="n">
-        <v>300</v>
+        <v>885.9635</v>
       </c>
       <c r="G25" t="n">
-        <v>35.2866666666666</v>
+        <v>35.3116666666666</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C26" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="D26" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E26" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="F26" t="n">
-        <v>1803.3237</v>
+        <v>300</v>
       </c>
       <c r="G26" t="n">
-        <v>35.26499999999994</v>
+        <v>35.2866666666666</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="C27" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="D27" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="E27" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="F27" t="n">
-        <v>1267.1709</v>
+        <v>1803.3237</v>
       </c>
       <c r="G27" t="n">
-        <v>35.24333333333326</v>
+        <v>35.26499999999994</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>34.6</v>
       </c>
       <c r="F28" t="n">
-        <v>2466.471</v>
+        <v>1267.1709</v>
       </c>
       <c r="G28" t="n">
-        <v>35.21999999999993</v>
+        <v>35.24333333333326</v>
       </c>
       <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>34.6</v>
       </c>
       <c r="F29" t="n">
-        <v>10667.7535</v>
+        <v>2466.471</v>
       </c>
       <c r="G29" t="n">
-        <v>35.19833333333326</v>
+        <v>35.21999999999993</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>34.6</v>
       </c>
       <c r="F30" t="n">
-        <v>1158.5618</v>
+        <v>10667.7535</v>
       </c>
       <c r="G30" t="n">
-        <v>35.17833333333326</v>
+        <v>35.19833333333326</v>
       </c>
       <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>34.6</v>
       </c>
       <c r="F31" t="n">
-        <v>1618.949</v>
+        <v>1158.5618</v>
       </c>
       <c r="G31" t="n">
-        <v>35.15666666666659</v>
+        <v>35.17833333333326</v>
       </c>
       <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>34.6</v>
       </c>
       <c r="C32" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D32" t="n">
         <v>34.6</v>
       </c>
       <c r="E32" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F32" t="n">
-        <v>10173.8419</v>
+        <v>1618.949</v>
       </c>
       <c r="G32" t="n">
-        <v>35.12999999999992</v>
+        <v>35.15666666666659</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="C33" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D33" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="E33" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F33" t="n">
-        <v>2268.068356446991</v>
+        <v>10173.8419</v>
       </c>
       <c r="G33" t="n">
-        <v>35.10499999999992</v>
+        <v>35.12999999999992</v>
       </c>
       <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>34.4</v>
+        <v>34.9</v>
       </c>
       <c r="C34" t="n">
         <v>34.4</v>
       </c>
       <c r="D34" t="n">
-        <v>34.4</v>
+        <v>34.9</v>
       </c>
       <c r="E34" t="n">
         <v>34.4</v>
       </c>
       <c r="F34" t="n">
-        <v>88</v>
+        <v>2268.068356446991</v>
       </c>
       <c r="G34" t="n">
-        <v>35.07999999999992</v>
+        <v>35.10499999999992</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,21 +1373,24 @@
         <v>34.4</v>
       </c>
       <c r="C35" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="D35" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="E35" t="n">
         <v>34.4</v>
       </c>
       <c r="F35" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="G35" t="n">
-        <v>35.05999999999992</v>
+        <v>35.07999999999992</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>34.8</v>
+        <v>34.4</v>
       </c>
       <c r="C36" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="D36" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E36" t="n">
         <v>34.4</v>
       </c>
       <c r="F36" t="n">
-        <v>1185.8841</v>
+        <v>44</v>
       </c>
       <c r="G36" t="n">
-        <v>35.03166666666659</v>
+        <v>35.05999999999992</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C37" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="D37" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E37" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="F37" t="n">
-        <v>2449.5677</v>
+        <v>1185.8841</v>
       </c>
       <c r="G37" t="n">
-        <v>35.01833333333325</v>
+        <v>35.03166666666659</v>
       </c>
       <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C38" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D38" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E38" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F38" t="n">
-        <v>2442.5286</v>
+        <v>2449.5677</v>
       </c>
       <c r="G38" t="n">
-        <v>35.00166666666658</v>
+        <v>35.01833333333325</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,7 +1486,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C39" t="n">
         <v>34.8</v>
@@ -1379,15 +1495,18 @@
         <v>34.8</v>
       </c>
       <c r="E39" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F39" t="n">
-        <v>5500</v>
+        <v>2442.5286</v>
       </c>
       <c r="G39" t="n">
-        <v>34.98499999999991</v>
+        <v>35.00166666666658</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,7 +1518,7 @@
         <v>34.7</v>
       </c>
       <c r="C40" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D40" t="n">
         <v>34.8</v>
@@ -1408,12 +1527,15 @@
         <v>34.7</v>
       </c>
       <c r="F40" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="G40" t="n">
-        <v>34.96666666666658</v>
+        <v>34.98499999999991</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,7 +1547,7 @@
         <v>34.7</v>
       </c>
       <c r="C41" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D41" t="n">
         <v>34.8</v>
@@ -1434,12 +1556,15 @@
         <v>34.7</v>
       </c>
       <c r="F41" t="n">
-        <v>18900</v>
+        <v>3500</v>
       </c>
       <c r="G41" t="n">
-        <v>34.94999999999991</v>
+        <v>34.96666666666658</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="C42" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E42" t="n">
         <v>34.7</v>
       </c>
-      <c r="D42" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="E42" t="n">
-        <v>34.5</v>
-      </c>
       <c r="F42" t="n">
-        <v>22</v>
+        <v>18900</v>
       </c>
       <c r="G42" t="n">
-        <v>34.93499999999991</v>
+        <v>34.94999999999991</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,21 +1605,24 @@
         <v>34.5</v>
       </c>
       <c r="C43" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="D43" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="E43" t="n">
         <v>34.5</v>
       </c>
       <c r="F43" t="n">
-        <v>808.198</v>
+        <v>22</v>
       </c>
       <c r="G43" t="n">
-        <v>34.91666666666658</v>
+        <v>34.93499999999991</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>34.5</v>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>808.198</v>
       </c>
       <c r="G44" t="n">
-        <v>34.89833333333324</v>
+        <v>34.91666666666658</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>34.5</v>
       </c>
       <c r="F45" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="n">
-        <v>34.87333333333324</v>
+        <v>34.89833333333324</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>34.5</v>
       </c>
       <c r="F46" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G46" t="n">
-        <v>34.85499999999991</v>
+        <v>34.87333333333324</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C47" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D47" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E47" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F47" t="n">
-        <v>13100.0001</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>34.83499999999992</v>
+        <v>34.85499999999991</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="C48" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="D48" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E48" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="F48" t="n">
-        <v>11</v>
+        <v>13100.0001</v>
       </c>
       <c r="G48" t="n">
-        <v>34.82166666666658</v>
+        <v>34.83499999999992</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>34.6</v>
       </c>
       <c r="F49" t="n">
-        <v>1588.4809</v>
+        <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>34.80833333333324</v>
+        <v>34.82166666666658</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,21 +1808,24 @@
         <v>34.6</v>
       </c>
       <c r="C50" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="D50" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E50" t="n">
         <v>34.6</v>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>1588.4809</v>
       </c>
       <c r="G50" t="n">
-        <v>34.79666666666657</v>
+        <v>34.80833333333324</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,7 +1834,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C51" t="n">
         <v>34.7</v>
@@ -1691,15 +1843,18 @@
         <v>34.7</v>
       </c>
       <c r="E51" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="F51" t="n">
-        <v>11163.9818</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="n">
-        <v>34.78333333333323</v>
+        <v>34.79666666666657</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>34.7</v>
       </c>
       <c r="F52" t="n">
-        <v>339.8265</v>
+        <v>11163.9818</v>
       </c>
       <c r="G52" t="n">
-        <v>34.77333333333323</v>
+        <v>34.78333333333323</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="C53" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="D53" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="E53" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="F53" t="n">
-        <v>11</v>
+        <v>339.8265</v>
       </c>
       <c r="G53" t="n">
-        <v>34.76333333333323</v>
+        <v>34.77333333333323</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,7 +1921,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C54" t="n">
         <v>34.6</v>
@@ -1769,15 +1930,18 @@
         <v>34.6</v>
       </c>
       <c r="E54" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F54" t="n">
-        <v>4591.084</v>
+        <v>11</v>
       </c>
       <c r="G54" t="n">
-        <v>34.75333333333323</v>
+        <v>34.76333333333323</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,21 +1953,24 @@
         <v>34.5</v>
       </c>
       <c r="C55" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D55" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E55" t="n">
         <v>34.5</v>
       </c>
       <c r="F55" t="n">
-        <v>2212.7864</v>
+        <v>4591.084</v>
       </c>
       <c r="G55" t="n">
-        <v>34.74166666666657</v>
+        <v>34.75333333333323</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C56" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D56" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E56" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F56" t="n">
-        <v>11</v>
+        <v>2212.7864</v>
       </c>
       <c r="G56" t="n">
-        <v>34.73166666666657</v>
+        <v>34.74166666666657</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>34.6</v>
       </c>
       <c r="F57" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="G57" t="n">
-        <v>34.72333333333324</v>
+        <v>34.73166666666657</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="C58" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="D58" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="E58" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="F58" t="n">
-        <v>124501.2105</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="n">
-        <v>34.71166666666657</v>
+        <v>34.72333333333324</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="C59" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="D59" t="n">
-        <v>34.2</v>
+        <v>34.4</v>
       </c>
       <c r="E59" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="F59" t="n">
-        <v>500</v>
+        <v>124501.2105</v>
       </c>
       <c r="G59" t="n">
-        <v>34.70166666666657</v>
+        <v>34.71166666666657</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="C60" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="D60" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="E60" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="F60" t="n">
-        <v>3683.6888</v>
+        <v>500</v>
       </c>
       <c r="G60" t="n">
-        <v>34.68666666666657</v>
+        <v>34.70166666666657</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>34.1</v>
       </c>
       <c r="F61" t="n">
-        <v>1727.0118</v>
+        <v>3683.6888</v>
       </c>
       <c r="G61" t="n">
-        <v>34.66833333333323</v>
+        <v>34.68666666666657</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="C62" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="D62" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="E62" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="F62" t="n">
-        <v>14916.7339</v>
+        <v>1727.0118</v>
       </c>
       <c r="G62" t="n">
-        <v>34.64333333333323</v>
+        <v>34.66833333333323</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>33.7</v>
+        <v>34</v>
       </c>
       <c r="C63" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="D63" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="E63" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="F63" t="n">
-        <v>43465.5675</v>
+        <v>14916.7339</v>
       </c>
       <c r="G63" t="n">
-        <v>34.61666666666657</v>
+        <v>34.64333333333323</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2026,18 +2217,21 @@
         <v>33.6</v>
       </c>
       <c r="D64" t="n">
-        <v>33.7</v>
+        <v>34.1</v>
       </c>
       <c r="E64" t="n">
         <v>33.6</v>
       </c>
       <c r="F64" t="n">
-        <v>238861.4713</v>
+        <v>43465.5675</v>
       </c>
       <c r="G64" t="n">
-        <v>34.5899999999999</v>
+        <v>34.61666666666657</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="C65" t="n">
         <v>33.6</v>
       </c>
       <c r="D65" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="E65" t="n">
         <v>33.6</v>
       </c>
       <c r="F65" t="n">
-        <v>78915.0245</v>
+        <v>238861.4713</v>
       </c>
       <c r="G65" t="n">
-        <v>34.56666666666657</v>
+        <v>34.5899999999999</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>33.6</v>
       </c>
       <c r="F66" t="n">
-        <v>10.2976</v>
+        <v>78915.0245</v>
       </c>
       <c r="G66" t="n">
-        <v>34.5399999999999</v>
+        <v>34.56666666666657</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>33.6</v>
       </c>
       <c r="F67" t="n">
-        <v>10000</v>
+        <v>10.2976</v>
       </c>
       <c r="G67" t="n">
-        <v>34.51333333333324</v>
+        <v>34.5399999999999</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>33.6</v>
       </c>
       <c r="F68" t="n">
-        <v>29000</v>
+        <v>10000</v>
       </c>
       <c r="G68" t="n">
-        <v>34.48833333333324</v>
+        <v>34.51333333333324</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2153,21 +2359,24 @@
         <v>33.6</v>
       </c>
       <c r="C69" t="n">
-        <v>34</v>
+        <v>33.6</v>
       </c>
       <c r="D69" t="n">
-        <v>34</v>
+        <v>33.6</v>
       </c>
       <c r="E69" t="n">
         <v>33.6</v>
       </c>
       <c r="F69" t="n">
-        <v>60562.38</v>
+        <v>29000</v>
       </c>
       <c r="G69" t="n">
-        <v>34.46999999999991</v>
+        <v>34.48833333333324</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>34.2</v>
+        <v>33.6</v>
       </c>
       <c r="C70" t="n">
-        <v>33.6</v>
+        <v>34</v>
       </c>
       <c r="D70" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="E70" t="n">
         <v>33.6</v>
       </c>
       <c r="F70" t="n">
-        <v>677</v>
+        <v>60562.38</v>
       </c>
       <c r="G70" t="n">
-        <v>34.44666666666657</v>
+        <v>34.46999999999991</v>
       </c>
       <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>33.6</v>
+        <v>34.2</v>
       </c>
       <c r="C71" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="D71" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="E71" t="n">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
       <c r="F71" t="n">
-        <v>223778.0378</v>
+        <v>677</v>
       </c>
       <c r="G71" t="n">
-        <v>34.41999999999991</v>
+        <v>34.44666666666657</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="C72" t="n">
         <v>33.3</v>
       </c>
       <c r="D72" t="n">
-        <v>33.3</v>
+        <v>34</v>
       </c>
       <c r="E72" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="F72" t="n">
-        <v>88</v>
+        <v>223778.0378</v>
       </c>
       <c r="G72" t="n">
-        <v>34.3949999999999</v>
+        <v>34.41999999999991</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>33.3</v>
       </c>
       <c r="F73" t="n">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="G73" t="n">
-        <v>34.36999999999991</v>
+        <v>34.3949999999999</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="C74" t="n">
-        <v>33.9</v>
+        <v>33.3</v>
       </c>
       <c r="D74" t="n">
-        <v>33.9</v>
+        <v>33.3</v>
       </c>
       <c r="E74" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="F74" t="n">
-        <v>21.7964</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
-        <v>34.35666666666658</v>
+        <v>34.36999999999991</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2309,21 +2533,24 @@
         <v>33.4</v>
       </c>
       <c r="C75" t="n">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="D75" t="n">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="E75" t="n">
         <v>33.4</v>
       </c>
       <c r="F75" t="n">
-        <v>11</v>
+        <v>21.7964</v>
       </c>
       <c r="G75" t="n">
-        <v>34.33499999999992</v>
+        <v>34.35666666666658</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>33.4</v>
       </c>
       <c r="C76" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="D76" t="n">
         <v>33.4</v>
       </c>
       <c r="E76" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="F76" t="n">
-        <v>101903.6663</v>
+        <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>34.30999999999992</v>
+        <v>34.33499999999992</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="C77" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="D77" t="n">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="E77" t="n">
         <v>33.2</v>
       </c>
       <c r="F77" t="n">
-        <v>1156.5768</v>
+        <v>101903.6663</v>
       </c>
       <c r="G77" t="n">
-        <v>34.28666666666659</v>
+        <v>34.30999999999992</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>33.3</v>
+        <v>33.7</v>
       </c>
       <c r="C78" t="n">
         <v>33.3</v>
       </c>
       <c r="D78" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="E78" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="F78" t="n">
-        <v>55</v>
+        <v>1156.5768</v>
       </c>
       <c r="G78" t="n">
-        <v>34.26666666666659</v>
+        <v>34.28666666666659</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,21 +2649,24 @@
         <v>33.3</v>
       </c>
       <c r="C79" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="D79" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="E79" t="n">
         <v>33.3</v>
       </c>
       <c r="F79" t="n">
-        <v>507</v>
+        <v>55</v>
       </c>
       <c r="G79" t="n">
-        <v>34.24833333333326</v>
+        <v>34.26666666666659</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="C80" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="D80" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="E80" t="n">
         <v>33.3</v>
       </c>
       <c r="F80" t="n">
-        <v>33478.1592</v>
+        <v>507</v>
       </c>
       <c r="G80" t="n">
-        <v>34.22833333333326</v>
+        <v>34.24833333333326</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,10 +2704,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="C81" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="D81" t="n">
         <v>33.4</v>
@@ -2474,12 +2716,15 @@
         <v>33.3</v>
       </c>
       <c r="F81" t="n">
-        <v>35458.0091</v>
+        <v>33478.1592</v>
       </c>
       <c r="G81" t="n">
-        <v>34.20999999999993</v>
+        <v>34.22833333333326</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,10 +2733,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="C82" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="D82" t="n">
         <v>33.4</v>
@@ -2500,12 +2745,15 @@
         <v>33.3</v>
       </c>
       <c r="F82" t="n">
-        <v>4023.7605</v>
+        <v>35458.0091</v>
       </c>
       <c r="G82" t="n">
-        <v>34.18499999999993</v>
+        <v>34.20999999999993</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,7 +2762,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="C83" t="n">
         <v>33.3</v>
@@ -2526,12 +2774,15 @@
         <v>33.3</v>
       </c>
       <c r="F83" t="n">
-        <v>44</v>
+        <v>4023.7605</v>
       </c>
       <c r="G83" t="n">
-        <v>34.16333333333327</v>
+        <v>34.18499999999993</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="C84" t="n">
-        <v>33.6</v>
+        <v>33.3</v>
       </c>
       <c r="D84" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="E84" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="F84" t="n">
-        <v>21.8928</v>
+        <v>44</v>
       </c>
       <c r="G84" t="n">
-        <v>34.1466666666666</v>
+        <v>34.16333333333327</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2569,21 +2823,24 @@
         <v>33.4</v>
       </c>
       <c r="C85" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="D85" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="E85" t="n">
         <v>33.4</v>
       </c>
       <c r="F85" t="n">
-        <v>11</v>
+        <v>21.8928</v>
       </c>
       <c r="G85" t="n">
-        <v>34.1266666666666</v>
+        <v>34.1466666666666</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="C86" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="D86" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="E86" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="F86" t="n">
-        <v>1149.8062</v>
+        <v>11</v>
       </c>
       <c r="G86" t="n">
-        <v>34.10833333333327</v>
+        <v>34.1266666666666</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2624,18 +2884,21 @@
         <v>33.6</v>
       </c>
       <c r="D87" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="E87" t="n">
         <v>33.6</v>
       </c>
       <c r="F87" t="n">
-        <v>4289.2858</v>
+        <v>1149.8062</v>
       </c>
       <c r="G87" t="n">
-        <v>34.0916666666666</v>
+        <v>34.10833333333327</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,21 +2910,24 @@
         <v>33.6</v>
       </c>
       <c r="C88" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="D88" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="E88" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="F88" t="n">
-        <v>31262.8333</v>
+        <v>4289.2858</v>
       </c>
       <c r="G88" t="n">
-        <v>34.07166666666661</v>
+        <v>34.0916666666666</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>33.4</v>
       </c>
       <c r="F89" t="n">
-        <v>43</v>
+        <v>31262.8333</v>
       </c>
       <c r="G89" t="n">
-        <v>34.05166666666661</v>
+        <v>34.07166666666661</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>33.4</v>
       </c>
       <c r="F90" t="n">
-        <v>34.2304</v>
+        <v>43</v>
       </c>
       <c r="G90" t="n">
-        <v>34.03166666666662</v>
+        <v>34.05166666666661</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>33.4</v>
       </c>
       <c r="F91" t="n">
-        <v>1220</v>
+        <v>34.2304</v>
       </c>
       <c r="G91" t="n">
-        <v>34.01166666666662</v>
+        <v>34.03166666666662</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="C92" t="n">
         <v>33.4</v>
       </c>
       <c r="D92" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="E92" t="n">
         <v>33.4</v>
       </c>
       <c r="F92" t="n">
-        <v>3425.7409</v>
+        <v>1220</v>
       </c>
       <c r="G92" t="n">
-        <v>33.99333333333329</v>
+        <v>34.01166666666662</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="C93" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="D93" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="E93" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="F93" t="n">
-        <v>29.76190476190476</v>
+        <v>3425.7409</v>
       </c>
       <c r="G93" t="n">
-        <v>33.97999999999995</v>
+        <v>33.99333333333329</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>33.6</v>
       </c>
       <c r="F94" t="n">
-        <v>10898.5118</v>
+        <v>29.76190476190476</v>
       </c>
       <c r="G94" t="n">
-        <v>33.96666666666661</v>
+        <v>33.97999999999995</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="C95" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="D95" t="n">
         <v>33.6</v>
       </c>
       <c r="E95" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="F95" t="n">
-        <v>11553.52159523809</v>
+        <v>10898.5118</v>
       </c>
       <c r="G95" t="n">
-        <v>33.94666666666662</v>
+        <v>33.96666666666661</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="C96" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="D96" t="n">
         <v>33.6</v>
       </c>
       <c r="E96" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="F96" t="n">
-        <v>77</v>
+        <v>11553.52159523809</v>
       </c>
       <c r="G96" t="n">
-        <v>33.93333333333328</v>
+        <v>33.94666666666662</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="C97" t="n">
         <v>33.6</v>
       </c>
       <c r="D97" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="E97" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="F97" t="n">
-        <v>7142.7056</v>
+        <v>77</v>
       </c>
       <c r="G97" t="n">
-        <v>33.91499999999994</v>
+        <v>33.93333333333328</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,10 +3197,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="C98" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="D98" t="n">
         <v>33.7</v>
@@ -2916,12 +3209,15 @@
         <v>33.6</v>
       </c>
       <c r="F98" t="n">
-        <v>16667.2574</v>
+        <v>7142.7056</v>
       </c>
       <c r="G98" t="n">
-        <v>33.89666666666661</v>
+        <v>33.91499999999994</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,7 +3226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="C99" t="n">
         <v>33.7</v>
@@ -2939,15 +3235,18 @@
         <v>33.7</v>
       </c>
       <c r="E99" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="F99" t="n">
-        <v>9176</v>
+        <v>16667.2574</v>
       </c>
       <c r="G99" t="n">
-        <v>33.87833333333328</v>
+        <v>33.89666666666661</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2962,18 +3261,21 @@
         <v>33.7</v>
       </c>
       <c r="D100" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="E100" t="n">
         <v>33.7</v>
       </c>
       <c r="F100" t="n">
-        <v>9306.244199999999</v>
+        <v>9176</v>
       </c>
       <c r="G100" t="n">
-        <v>33.86166666666661</v>
+        <v>33.87833333333328</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2988,18 +3290,21 @@
         <v>33.7</v>
       </c>
       <c r="D101" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="E101" t="n">
         <v>33.7</v>
       </c>
       <c r="F101" t="n">
-        <v>3500</v>
+        <v>9306.244199999999</v>
       </c>
       <c r="G101" t="n">
-        <v>33.84333333333328</v>
+        <v>33.86166666666661</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>33.7</v>
       </c>
       <c r="F102" t="n">
-        <v>169</v>
+        <v>3500</v>
       </c>
       <c r="G102" t="n">
-        <v>33.82666666666662</v>
+        <v>33.84333333333328</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>33.7</v>
       </c>
       <c r="F103" t="n">
-        <v>1580.7959</v>
+        <v>169</v>
       </c>
       <c r="G103" t="n">
-        <v>33.81333333333328</v>
+        <v>33.82666666666662</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,21 +3374,24 @@
         <v>33.7</v>
       </c>
       <c r="C104" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="D104" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="E104" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="F104" t="n">
-        <v>1817.162</v>
+        <v>1580.7959</v>
       </c>
       <c r="G104" t="n">
-        <v>33.79833333333328</v>
+        <v>33.81333333333328</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="C105" t="n">
         <v>33.6</v>
       </c>
       <c r="D105" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="E105" t="n">
         <v>33.6</v>
       </c>
       <c r="F105" t="n">
-        <v>15000</v>
+        <v>1817.162</v>
       </c>
       <c r="G105" t="n">
-        <v>33.78333333333328</v>
+        <v>33.79833333333328</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="C106" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="D106" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="E106" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="F106" t="n">
-        <v>92</v>
+        <v>15000</v>
       </c>
       <c r="G106" t="n">
-        <v>33.76999999999995</v>
+        <v>33.78333333333328</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>33.7</v>
       </c>
       <c r="F107" t="n">
-        <v>16.818</v>
+        <v>92</v>
       </c>
       <c r="G107" t="n">
-        <v>33.75833333333328</v>
+        <v>33.76999999999995</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="C108" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="D108" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="E108" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="F108" t="n">
-        <v>18600</v>
+        <v>16.818</v>
       </c>
       <c r="G108" t="n">
-        <v>33.7416666666666</v>
+        <v>33.75833333333328</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="C109" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="D109" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="E109" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="F109" t="n">
-        <v>54307.6934</v>
+        <v>18600</v>
       </c>
       <c r="G109" t="n">
-        <v>33.72333333333327</v>
+        <v>33.7416666666666</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="C110" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="D110" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="E110" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="F110" t="n">
-        <v>1867.3964</v>
+        <v>54307.6934</v>
       </c>
       <c r="G110" t="n">
-        <v>33.70499999999994</v>
+        <v>33.72333333333327</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="C111" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="D111" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="E111" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="F111" t="n">
-        <v>46748.2259</v>
+        <v>1867.3964</v>
       </c>
       <c r="G111" t="n">
-        <v>33.68499999999994</v>
+        <v>33.70499999999994</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="C112" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="D112" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="E112" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="F112" t="n">
-        <v>500</v>
+        <v>46748.2259</v>
       </c>
       <c r="G112" t="n">
-        <v>33.66666666666661</v>
+        <v>33.68499999999994</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>33.6</v>
       </c>
       <c r="F113" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G113" t="n">
-        <v>33.64999999999995</v>
+        <v>33.66666666666661</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="C114" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="D114" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="E114" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="G114" t="n">
-        <v>33.63499999999995</v>
+        <v>33.64999999999995</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>33.7</v>
       </c>
       <c r="F115" t="n">
-        <v>1485.1439</v>
+        <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>33.62166666666661</v>
+        <v>33.63499999999995</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>33.7</v>
       </c>
       <c r="F116" t="n">
-        <v>19900</v>
+        <v>1485.1439</v>
       </c>
       <c r="G116" t="n">
-        <v>33.60666666666661</v>
+        <v>33.62166666666661</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3401,21 +3751,24 @@
         <v>33.7</v>
       </c>
       <c r="C117" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="D117" t="n">
         <v>33.7</v>
       </c>
       <c r="E117" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="F117" t="n">
-        <v>2040</v>
+        <v>19900</v>
       </c>
       <c r="G117" t="n">
-        <v>33.58999999999994</v>
+        <v>33.60666666666661</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="C118" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="D118" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="E118" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>2040</v>
       </c>
       <c r="G118" t="n">
-        <v>33.57499999999994</v>
+        <v>33.58999999999994</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>33.5</v>
       </c>
       <c r="F119" t="n">
-        <v>42040.4253</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>33.56333333333327</v>
+        <v>33.57499999999994</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,12 +3847,15 @@
         <v>33.5</v>
       </c>
       <c r="F120" t="n">
-        <v>7698.6233</v>
+        <v>42040.4253</v>
       </c>
       <c r="G120" t="n">
-        <v>33.55333333333327</v>
+        <v>33.56333333333327</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="C121" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="D121" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="E121" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="F121" t="n">
-        <v>22301.3767</v>
+        <v>7698.6233</v>
       </c>
       <c r="G121" t="n">
-        <v>33.54166666666661</v>
+        <v>33.55333333333327</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3540,12 +3905,15 @@
         <v>33.4</v>
       </c>
       <c r="F122" t="n">
-        <v>454.7026</v>
+        <v>22301.3767</v>
       </c>
       <c r="G122" t="n">
-        <v>33.53666666666661</v>
+        <v>33.54166666666661</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="C123" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="D123" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="E123" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="F123" t="n">
-        <v>977.75</v>
+        <v>454.7026</v>
       </c>
       <c r="G123" t="n">
-        <v>33.53166666666661</v>
+        <v>33.53666666666661</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>33.3</v>
       </c>
       <c r="F124" t="n">
-        <v>30500.2919</v>
+        <v>977.75</v>
       </c>
       <c r="G124" t="n">
-        <v>33.52666666666661</v>
+        <v>33.53166666666661</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>33.3</v>
       </c>
       <c r="F125" t="n">
-        <v>1978.7973</v>
+        <v>30500.2919</v>
       </c>
       <c r="G125" t="n">
-        <v>33.52166666666661</v>
+        <v>33.52666666666661</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>33.6</v>
+        <v>33.3</v>
       </c>
       <c r="C126" t="n">
-        <v>33.7</v>
+        <v>33.3</v>
       </c>
       <c r="D126" t="n">
-        <v>33.8</v>
+        <v>33.3</v>
       </c>
       <c r="E126" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="F126" t="n">
-        <v>132973.0765</v>
+        <v>1978.7973</v>
       </c>
       <c r="G126" t="n">
-        <v>33.52333333333328</v>
+        <v>33.52166666666661</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="C127" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="D127" t="n">
-        <v>33.4</v>
+        <v>33.8</v>
       </c>
       <c r="E127" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="F127" t="n">
-        <v>100</v>
+        <v>132973.0765</v>
       </c>
       <c r="G127" t="n">
-        <v>33.51999999999995</v>
+        <v>33.52333333333328</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="C128" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="D128" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="E128" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G128" t="n">
-        <v>33.51833333333329</v>
+        <v>33.51999999999995</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>33.5</v>
       </c>
       <c r="F129" t="n">
-        <v>16990</v>
+        <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>33.50999999999996</v>
+        <v>33.51833333333329</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="C130" t="n">
-        <v>33.8</v>
+        <v>33.5</v>
       </c>
       <c r="D130" t="n">
-        <v>33.8</v>
+        <v>33.5</v>
       </c>
       <c r="E130" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="F130" t="n">
-        <v>613.9518</v>
+        <v>16990</v>
       </c>
       <c r="G130" t="n">
-        <v>33.51333333333329</v>
+        <v>33.50999999999996</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="C131" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="D131" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="E131" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="F131" t="n">
-        <v>8010</v>
+        <v>613.9518</v>
       </c>
       <c r="G131" t="n">
-        <v>33.51999999999995</v>
+        <v>33.51333333333329</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,10 +4183,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="C132" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="D132" t="n">
         <v>33.7</v>
@@ -3800,12 +4195,15 @@
         <v>33.5</v>
       </c>
       <c r="F132" t="n">
-        <v>14324.4534</v>
+        <v>8010</v>
       </c>
       <c r="G132" t="n">
-        <v>33.52333333333329</v>
+        <v>33.51999999999995</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3817,21 +4215,24 @@
         <v>33.7</v>
       </c>
       <c r="C133" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="D133" t="n">
         <v>33.7</v>
       </c>
       <c r="E133" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="F133" t="n">
-        <v>10</v>
+        <v>14324.4534</v>
       </c>
       <c r="G133" t="n">
-        <v>33.52999999999996</v>
+        <v>33.52333333333329</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3843,21 +4244,24 @@
         <v>33.7</v>
       </c>
       <c r="C134" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="D134" t="n">
         <v>33.7</v>
       </c>
       <c r="E134" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="F134" t="n">
-        <v>39.67359050445104</v>
+        <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>33.52166666666663</v>
+        <v>33.52999999999996</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="C135" t="n">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="D135" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="E135" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="F135" t="n">
-        <v>8261</v>
+        <v>39.67359050445104</v>
       </c>
       <c r="G135" t="n">
-        <v>33.52666666666662</v>
+        <v>33.52166666666663</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="D136" t="n">
         <v>34</v>
       </c>
-      <c r="C136" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D136" t="n">
-        <v>34.1</v>
-      </c>
       <c r="E136" t="n">
-        <v>34</v>
+        <v>33.6</v>
       </c>
       <c r="F136" t="n">
-        <v>6077</v>
+        <v>8261</v>
       </c>
       <c r="G136" t="n">
-        <v>33.54166666666662</v>
+        <v>33.52666666666662</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3921,21 +4331,24 @@
         <v>34</v>
       </c>
       <c r="C137" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="D137" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="E137" t="n">
         <v>34</v>
       </c>
       <c r="F137" t="n">
-        <v>7068.2058</v>
+        <v>6077</v>
       </c>
       <c r="G137" t="n">
-        <v>33.55333333333329</v>
+        <v>33.54166666666662</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="C138" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="D138" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="E138" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="F138" t="n">
-        <v>13010</v>
+        <v>7068.2058</v>
       </c>
       <c r="G138" t="n">
-        <v>33.56166666666662</v>
+        <v>33.55333333333329</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3973,21 +4389,24 @@
         <v>33.9</v>
       </c>
       <c r="C139" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="D139" t="n">
         <v>33.9</v>
       </c>
       <c r="E139" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="F139" t="n">
-        <v>3617.4271</v>
+        <v>13010</v>
       </c>
       <c r="G139" t="n">
-        <v>33.56666666666662</v>
+        <v>33.56166666666662</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3999,21 +4418,24 @@
         <v>33.9</v>
       </c>
       <c r="C140" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="D140" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="E140" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="F140" t="n">
-        <v>8166.6022</v>
+        <v>3617.4271</v>
       </c>
       <c r="G140" t="n">
-        <v>33.57833333333329</v>
+        <v>33.56666666666662</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="C141" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="D141" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="E141" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>8166.6022</v>
       </c>
       <c r="G141" t="n">
-        <v>33.58499999999995</v>
+        <v>33.57833333333329</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="C142" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="D142" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="E142" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="F142" t="n">
-        <v>12137.0146</v>
+        <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>33.59499999999996</v>
+        <v>33.58499999999995</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4077,21 +4505,24 @@
         <v>33.9</v>
       </c>
       <c r="C143" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="D143" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="E143" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="F143" t="n">
-        <v>11877.493</v>
+        <v>12137.0146</v>
       </c>
       <c r="G143" t="n">
-        <v>33.60666666666662</v>
+        <v>33.59499999999996</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="C144" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="D144" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="E144" t="n">
         <v>33.8</v>
       </c>
       <c r="F144" t="n">
-        <v>10</v>
+        <v>11877.493</v>
       </c>
       <c r="G144" t="n">
-        <v>33.60999999999995</v>
+        <v>33.60666666666662</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4129,21 +4563,24 @@
         <v>33.8</v>
       </c>
       <c r="C145" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="D145" t="n">
         <v>33.8</v>
       </c>
       <c r="E145" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="F145" t="n">
-        <v>5137.737</v>
+        <v>10</v>
       </c>
       <c r="G145" t="n">
-        <v>33.61333333333328</v>
+        <v>33.60999999999995</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4155,21 +4592,24 @@
         <v>33.8</v>
       </c>
       <c r="C146" t="n">
-        <v>33.9</v>
+        <v>33.6</v>
       </c>
       <c r="D146" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="E146" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="F146" t="n">
-        <v>1000</v>
+        <v>5137.737</v>
       </c>
       <c r="G146" t="n">
-        <v>33.61833333333329</v>
+        <v>33.61333333333328</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,7 +4618,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="C147" t="n">
         <v>33.9</v>
@@ -4187,15 +4627,18 @@
         <v>33.9</v>
       </c>
       <c r="E147" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="F147" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G147" t="n">
-        <v>33.62333333333329</v>
+        <v>33.61833333333329</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,7 +4647,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="C148" t="n">
         <v>33.9</v>
@@ -4213,15 +4656,18 @@
         <v>33.9</v>
       </c>
       <c r="E148" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="F148" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G148" t="n">
-        <v>33.63166666666663</v>
+        <v>33.62333333333329</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="C149" t="n">
-        <v>33.6</v>
+        <v>33.9</v>
       </c>
       <c r="D149" t="n">
-        <v>33.6</v>
+        <v>33.9</v>
       </c>
       <c r="E149" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="F149" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="G149" t="n">
-        <v>33.63499999999996</v>
+        <v>33.63166666666663</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4259,21 +4708,24 @@
         <v>33.6</v>
       </c>
       <c r="C150" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="D150" t="n">
         <v>33.6</v>
       </c>
       <c r="E150" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="F150" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G150" t="n">
-        <v>33.63666666666662</v>
+        <v>33.63499999999996</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>33.9</v>
+        <v>33.6</v>
       </c>
       <c r="C151" t="n">
-        <v>33.9</v>
+        <v>33.5</v>
       </c>
       <c r="D151" t="n">
-        <v>33.9</v>
+        <v>33.6</v>
       </c>
       <c r="E151" t="n">
-        <v>33.9</v>
+        <v>33.5</v>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G151" t="n">
-        <v>33.64499999999995</v>
+        <v>33.63666666666662</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4311,21 +4766,24 @@
         <v>33.9</v>
       </c>
       <c r="C152" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="D152" t="n">
         <v>33.9</v>
       </c>
       <c r="E152" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="F152" t="n">
-        <v>3010</v>
+        <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>33.64999999999995</v>
+        <v>33.64499999999995</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>33.6</v>
+        <v>33.9</v>
       </c>
       <c r="C153" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="D153" t="n">
-        <v>33.6</v>
+        <v>33.9</v>
       </c>
       <c r="E153" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="F153" t="n">
-        <v>10</v>
+        <v>3010</v>
       </c>
       <c r="G153" t="n">
         <v>33.64999999999995</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4380,22 +4841,25 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="C155" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="D155" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="E155" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="F155" t="n">
         <v>10</v>
@@ -4404,6 +4868,9 @@
         <v>33.64999999999995</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="C156" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="D156" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="E156" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="F156" t="n">
-        <v>219.1691</v>
+        <v>10</v>
       </c>
       <c r="G156" t="n">
-        <v>33.65166666666661</v>
+        <v>33.64999999999995</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4441,21 +4911,24 @@
         <v>33.7</v>
       </c>
       <c r="C157" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="D157" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="E157" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="F157" t="n">
-        <v>14910</v>
+        <v>219.1691</v>
       </c>
       <c r="G157" t="n">
         <v>33.65166666666661</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="C158" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="D158" t="n">
-        <v>33.5</v>
+        <v>33.9</v>
       </c>
       <c r="E158" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="F158" t="n">
-        <v>10</v>
+        <v>14910</v>
       </c>
       <c r="G158" t="n">
-        <v>33.64833333333328</v>
+        <v>33.65166666666661</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,16 +4966,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="C159" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="D159" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="E159" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="F159" t="n">
         <v>10</v>
@@ -4508,6 +4984,9 @@
         <v>33.64833333333328</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="C160" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="D160" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="E160" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="F160" t="n">
-        <v>108.703</v>
+        <v>10</v>
       </c>
       <c r="G160" t="n">
-        <v>33.64499999999995</v>
+        <v>33.64833333333328</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4554,12 +5036,15 @@
         <v>33.5</v>
       </c>
       <c r="F161" t="n">
-        <v>7068.2058</v>
+        <v>108.703</v>
       </c>
       <c r="G161" t="n">
-        <v>33.64166666666662</v>
+        <v>33.64499999999995</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="C162" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="D162" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="E162" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="F162" t="n">
-        <v>20</v>
+        <v>7068.2058</v>
       </c>
       <c r="G162" t="n">
         <v>33.64166666666662</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="C163" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="D163" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="E163" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="F163" t="n">
-        <v>62.5168</v>
+        <v>20</v>
       </c>
       <c r="G163" t="n">
-        <v>33.63833333333329</v>
+        <v>33.64166666666662</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="C164" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="D164" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="E164" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="F164" t="n">
-        <v>10</v>
+        <v>62.5168</v>
       </c>
       <c r="G164" t="n">
-        <v>33.63999999999996</v>
+        <v>33.63833333333329</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>33.7</v>
       </c>
       <c r="F165" t="n">
-        <v>29.67359050445104</v>
+        <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>33.64166666666662</v>
+        <v>33.63999999999996</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="C166" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="D166" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="E166" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="F166" t="n">
-        <v>10</v>
+        <v>29.67359050445104</v>
       </c>
       <c r="G166" t="n">
-        <v>33.63833333333329</v>
+        <v>33.64166666666662</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="C167" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="D167" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="E167" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="F167" t="n">
-        <v>30010</v>
+        <v>10</v>
       </c>
       <c r="G167" t="n">
-        <v>33.63666666666662</v>
+        <v>33.63833333333329</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4727,21 +5230,24 @@
         <v>33.7</v>
       </c>
       <c r="C168" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="D168" t="n">
         <v>33.7</v>
       </c>
       <c r="E168" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="F168" t="n">
-        <v>10</v>
+        <v>30010</v>
       </c>
       <c r="G168" t="n">
-        <v>33.63833333333329</v>
+        <v>33.63666666666662</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="C169" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="D169" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="E169" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="F169" t="n">
-        <v>31.2584</v>
+        <v>10</v>
       </c>
       <c r="G169" t="n">
-        <v>33.63999999999996</v>
+        <v>33.63833333333329</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="C170" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="D170" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="E170" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="F170" t="n">
-        <v>10</v>
+        <v>31.2584</v>
       </c>
       <c r="G170" t="n">
-        <v>33.64166666666662</v>
+        <v>33.63999999999996</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="C171" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="D171" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="E171" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="F171" t="n">
-        <v>8673.3575</v>
+        <v>10</v>
       </c>
       <c r="G171" t="n">
         <v>33.64166666666662</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="C172" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="D172" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="E172" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>8673.3575</v>
       </c>
       <c r="G172" t="n">
-        <v>33.64333333333329</v>
+        <v>33.64166666666662</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="C173" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="D173" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="E173" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="F173" t="n">
-        <v>9596.9815</v>
+        <v>10</v>
       </c>
       <c r="G173" t="n">
-        <v>33.64166666666662</v>
+        <v>33.64333333333329</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4892,12 +5413,15 @@
         <v>33.5</v>
       </c>
       <c r="F174" t="n">
-        <v>31808.2533</v>
+        <v>9596.9815</v>
       </c>
       <c r="G174" t="n">
-        <v>33.63833333333329</v>
+        <v>33.64166666666662</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4918,12 +5442,15 @@
         <v>33.5</v>
       </c>
       <c r="F175" t="n">
-        <v>28932.9756</v>
+        <v>31808.2533</v>
       </c>
       <c r="G175" t="n">
-        <v>33.63499999999996</v>
+        <v>33.63833333333329</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4944,12 +5471,15 @@
         <v>33.5</v>
       </c>
       <c r="F176" t="n">
-        <v>49713.5036</v>
+        <v>28932.9756</v>
       </c>
       <c r="G176" t="n">
-        <v>33.63166666666663</v>
+        <v>33.63499999999996</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4970,12 +5500,15 @@
         <v>33.5</v>
       </c>
       <c r="F177" t="n">
-        <v>1000</v>
+        <v>49713.5036</v>
       </c>
       <c r="G177" t="n">
-        <v>33.62999999999997</v>
+        <v>33.63166666666663</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4996,12 +5529,15 @@
         <v>33.5</v>
       </c>
       <c r="F178" t="n">
-        <v>1190.5298</v>
+        <v>1000</v>
       </c>
       <c r="G178" t="n">
         <v>33.62999999999997</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="C179" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="D179" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="E179" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="F179" t="n">
-        <v>10</v>
+        <v>1190.5298</v>
       </c>
       <c r="G179" t="n">
-        <v>33.6283333333333</v>
+        <v>33.62999999999997</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="C180" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="D180" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="E180" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="F180" t="n">
-        <v>73361.94</v>
+        <v>10</v>
       </c>
       <c r="G180" t="n">
         <v>33.6283333333333</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5074,12 +5616,15 @@
         <v>33.5</v>
       </c>
       <c r="F181" t="n">
-        <v>37340.7342</v>
+        <v>73361.94</v>
       </c>
       <c r="G181" t="n">
-        <v>33.62999999999997</v>
+        <v>33.6283333333333</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5091,21 +5636,24 @@
         <v>33.5</v>
       </c>
       <c r="C182" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="D182" t="n">
         <v>33.5</v>
       </c>
       <c r="E182" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="F182" t="n">
-        <v>14441.8614</v>
+        <v>37340.7342</v>
       </c>
       <c r="G182" t="n">
         <v>33.62999999999997</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="C183" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="D183" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="E183" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="F183" t="n">
-        <v>783.2588</v>
+        <v>14441.8614</v>
       </c>
       <c r="G183" t="n">
         <v>33.62999999999997</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5152,12 +5703,15 @@
         <v>33.3</v>
       </c>
       <c r="F184" t="n">
-        <v>14614.3703</v>
+        <v>783.2588</v>
       </c>
       <c r="G184" t="n">
         <v>33.62999999999997</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5169,21 +5723,24 @@
         <v>33.3</v>
       </c>
       <c r="C185" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="D185" t="n">
         <v>33.3</v>
       </c>
       <c r="E185" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="F185" t="n">
-        <v>2433.5279</v>
+        <v>14614.3703</v>
       </c>
       <c r="G185" t="n">
-        <v>33.6283333333333</v>
+        <v>33.62999999999997</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="C186" t="n">
         <v>33.2</v>
       </c>
       <c r="D186" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="E186" t="n">
         <v>33.2</v>
       </c>
       <c r="F186" t="n">
-        <v>144.4234</v>
+        <v>2433.5279</v>
       </c>
       <c r="G186" t="n">
-        <v>33.61999999999997</v>
+        <v>33.6283333333333</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5230,12 +5790,15 @@
         <v>33.2</v>
       </c>
       <c r="F187" t="n">
-        <v>74.5232</v>
+        <v>144.4234</v>
       </c>
       <c r="G187" t="n">
-        <v>33.61666666666664</v>
+        <v>33.61999999999997</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="C188" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="D188" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="E188" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="F188" t="n">
-        <v>60793.1391</v>
+        <v>74.5232</v>
       </c>
       <c r="G188" t="n">
-        <v>33.61333333333331</v>
+        <v>33.61666666666664</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="C189" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="D189" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="E189" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="F189" t="n">
-        <v>10</v>
+        <v>60793.1391</v>
       </c>
       <c r="G189" t="n">
-        <v>33.60833333333331</v>
+        <v>33.61333333333331</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5308,12 +5877,15 @@
         <v>33.2</v>
       </c>
       <c r="F190" t="n">
-        <v>2507.2615</v>
+        <v>10</v>
       </c>
       <c r="G190" t="n">
-        <v>33.5983333333333</v>
+        <v>33.60833333333331</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="C191" t="n">
         <v>33.2</v>
       </c>
       <c r="D191" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="E191" t="n">
         <v>33.2</v>
       </c>
       <c r="F191" t="n">
-        <v>79887.8705</v>
+        <v>2507.2615</v>
       </c>
       <c r="G191" t="n">
-        <v>33.58999999999997</v>
+        <v>33.5983333333333</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="C192" t="n">
         <v>33.2</v>
       </c>
       <c r="D192" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="E192" t="n">
         <v>33.2</v>
       </c>
       <c r="F192" t="n">
-        <v>4149.432</v>
+        <v>79887.8705</v>
       </c>
       <c r="G192" t="n">
-        <v>33.58499999999997</v>
+        <v>33.58999999999997</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="C193" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="D193" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="E193" t="n">
-        <v>32.9</v>
+        <v>33.2</v>
       </c>
       <c r="F193" t="n">
-        <v>220184.6804</v>
+        <v>4149.432</v>
       </c>
       <c r="G193" t="n">
-        <v>33.5783333333333</v>
+        <v>33.58499999999997</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="C194" t="n">
-        <v>32.9</v>
+        <v>33.3</v>
       </c>
       <c r="D194" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="E194" t="n">
         <v>32.9</v>
       </c>
       <c r="F194" t="n">
-        <v>92551.0067</v>
+        <v>220184.6804</v>
       </c>
       <c r="G194" t="n">
-        <v>33.56999999999997</v>
+        <v>33.5783333333333</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>33.4</v>
+        <v>32.9</v>
       </c>
       <c r="C195" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="D195" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="E195" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="F195" t="n">
-        <v>20</v>
+        <v>92551.0067</v>
       </c>
       <c r="G195" t="n">
-        <v>33.56166666666664</v>
+        <v>33.56999999999997</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,24 +6039,27 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="C196" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="D196" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="E196" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="F196" t="n">
-        <v>2426.9644</v>
+        <v>20</v>
       </c>
       <c r="G196" t="n">
-        <v>33.54499999999997</v>
+        <v>33.56166666666664</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="C197" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="D197" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="E197" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="F197" t="n">
-        <v>3706.8114</v>
+        <v>2426.9644</v>
       </c>
       <c r="G197" t="n">
-        <v>33.53166666666664</v>
+        <v>33.54499999999997</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5504,24 +6097,27 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="C198" t="n">
         <v>33.2</v>
       </c>
       <c r="D198" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E198" t="n">
         <v>33.2</v>
       </c>
-      <c r="E198" t="n">
-        <v>33.1</v>
-      </c>
       <c r="F198" t="n">
-        <v>80</v>
+        <v>3706.8114</v>
       </c>
       <c r="G198" t="n">
-        <v>33.52166666666664</v>
+        <v>33.53166666666664</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C199" t="n">
         <v>33.2</v>
       </c>
-      <c r="C199" t="n">
-        <v>33.1</v>
-      </c>
       <c r="D199" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="E199" t="n">
         <v>33.1</v>
       </c>
       <c r="F199" t="n">
-        <v>1427.7121</v>
+        <v>80</v>
       </c>
       <c r="G199" t="n">
-        <v>33.51166666666663</v>
+        <v>33.52166666666664</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="C200" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="D200" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="E200" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="F200" t="n">
-        <v>10</v>
+        <v>1427.7121</v>
       </c>
       <c r="G200" t="n">
-        <v>33.49499999999997</v>
+        <v>33.51166666666663</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C201" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="D201" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E201" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F201" t="n">
-        <v>1766.894680362538</v>
+        <v>10</v>
       </c>
       <c r="G201" t="n">
-        <v>33.48333333333331</v>
+        <v>33.49499999999997</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="C202" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="D202" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="E202" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="F202" t="n">
-        <v>90</v>
+        <v>1766.894680362538</v>
       </c>
       <c r="G202" t="n">
-        <v>33.47166666666664</v>
+        <v>33.48333333333331</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5637,21 +6245,24 @@
         <v>33</v>
       </c>
       <c r="C203" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="D203" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="E203" t="n">
         <v>33</v>
       </c>
       <c r="F203" t="n">
-        <v>499.2645</v>
+        <v>90</v>
       </c>
       <c r="G203" t="n">
-        <v>33.45499999999997</v>
+        <v>33.47166666666664</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C204" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="D204" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E204" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F204" t="n">
-        <v>649.2145</v>
+        <v>499.2645</v>
       </c>
       <c r="G204" t="n">
-        <v>33.4433333333333</v>
+        <v>33.45499999999997</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5689,21 +6303,24 @@
         <v>33.1</v>
       </c>
       <c r="C205" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="D205" t="n">
         <v>33.1</v>
       </c>
       <c r="E205" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="F205" t="n">
-        <v>661.8424</v>
+        <v>649.2145</v>
       </c>
       <c r="G205" t="n">
-        <v>33.4333333333333</v>
+        <v>33.4433333333333</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5715,21 +6332,24 @@
         <v>33.1</v>
       </c>
       <c r="C206" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="D206" t="n">
         <v>33.1</v>
       </c>
       <c r="E206" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F206" t="n">
-        <v>60594.3312</v>
+        <v>661.8424</v>
       </c>
       <c r="G206" t="n">
-        <v>33.41999999999997</v>
+        <v>33.4333333333333</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,24 +6358,27 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="C207" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="D207" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="E207" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="F207" t="n">
-        <v>73600</v>
+        <v>60594.3312</v>
       </c>
       <c r="G207" t="n">
-        <v>33.40499999999997</v>
+        <v>33.41999999999997</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5767,21 +6390,24 @@
         <v>33.2</v>
       </c>
       <c r="C208" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="D208" t="n">
         <v>33.2</v>
       </c>
       <c r="E208" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="F208" t="n">
-        <v>10</v>
+        <v>73600</v>
       </c>
       <c r="G208" t="n">
-        <v>33.3933333333333</v>
+        <v>33.40499999999997</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="C209" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="D209" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="E209" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="F209" t="n">
-        <v>967.1357</v>
+        <v>10</v>
       </c>
       <c r="G209" t="n">
-        <v>33.3833333333333</v>
+        <v>33.3933333333333</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,12 +6457,15 @@
         <v>33</v>
       </c>
       <c r="F210" t="n">
-        <v>933.4699000000001</v>
+        <v>967.1357</v>
       </c>
       <c r="G210" t="n">
-        <v>33.37499999999996</v>
+        <v>33.3833333333333</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,24 +6474,27 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C211" t="n">
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="D211" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E211" t="n">
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="F211" t="n">
-        <v>264256.6651</v>
+        <v>933.4699000000001</v>
       </c>
       <c r="G211" t="n">
-        <v>33.35166666666663</v>
+        <v>33.37499999999996</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C212" t="n">
         <v>32.5</v>
       </c>
-      <c r="C212" t="n">
-        <v>33</v>
-      </c>
       <c r="D212" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="E212" t="n">
         <v>32.5</v>
       </c>
       <c r="F212" t="n">
-        <v>4510</v>
+        <v>264256.6651</v>
       </c>
       <c r="G212" t="n">
-        <v>33.33999999999996</v>
+        <v>33.35166666666663</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,25 +6532,28 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>32.9</v>
+        <v>32.5</v>
       </c>
       <c r="C213" t="n">
         <v>33</v>
       </c>
       <c r="D213" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E213" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="F213" t="n">
-        <v>7878.7138</v>
+        <v>4510</v>
       </c>
       <c r="G213" t="n">
-        <v>33.32999999999996</v>
+        <v>33.33999999999996</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -5923,22 +6564,25 @@
         <v>32.9</v>
       </c>
       <c r="C214" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="D214" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="E214" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="F214" t="n">
-        <v>981.1629</v>
+        <v>7878.7138</v>
       </c>
       <c r="G214" t="n">
-        <v>33.31499999999997</v>
+        <v>33.32999999999996</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -5949,21 +6593,24 @@
         <v>32.9</v>
       </c>
       <c r="C215" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="D215" t="n">
         <v>32.9</v>
       </c>
       <c r="E215" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="F215" t="n">
-        <v>1502.3064</v>
+        <v>981.1629</v>
       </c>
       <c r="G215" t="n">
-        <v>33.30499999999997</v>
+        <v>33.31499999999997</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5975,21 +6622,24 @@
         <v>32.9</v>
       </c>
       <c r="C216" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="D216" t="n">
         <v>32.9</v>
       </c>
       <c r="E216" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="F216" t="n">
-        <v>286.1553</v>
+        <v>1502.3064</v>
       </c>
       <c r="G216" t="n">
-        <v>33.28999999999997</v>
+        <v>33.30499999999997</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="C217" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="D217" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E217" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="F217" t="n">
-        <v>20.18</v>
+        <v>286.1553</v>
       </c>
       <c r="G217" t="n">
-        <v>33.27999999999997</v>
+        <v>33.28999999999997</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6027,21 +6680,24 @@
         <v>33</v>
       </c>
       <c r="C218" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="D218" t="n">
         <v>33</v>
       </c>
       <c r="E218" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="F218" t="n">
-        <v>20</v>
+        <v>20.18</v>
       </c>
       <c r="G218" t="n">
-        <v>33.2683333333333</v>
+        <v>33.27999999999997</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="C219" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="D219" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="E219" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="F219" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G219" t="n">
-        <v>33.25166666666664</v>
+        <v>33.2683333333333</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="C220" t="n">
         <v>32.7</v>
       </c>
       <c r="D220" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="E220" t="n">
         <v>32.7</v>
       </c>
       <c r="F220" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G220" t="n">
-        <v>33.2383333333333</v>
+        <v>33.25166666666664</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="C221" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="D221" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="E221" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="F221" t="n">
-        <v>838.7994</v>
+        <v>20</v>
       </c>
       <c r="G221" t="n">
-        <v>33.2283333333333</v>
+        <v>33.2383333333333</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6134,18 +6799,21 @@
         <v>32.9</v>
       </c>
       <c r="D222" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E222" t="n">
         <v>32.6</v>
       </c>
       <c r="F222" t="n">
-        <v>20664.8263</v>
+        <v>838.7994</v>
       </c>
       <c r="G222" t="n">
-        <v>33.21499999999997</v>
+        <v>33.2283333333333</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="C223" t="n">
         <v>32.9</v>
       </c>
       <c r="D223" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="E223" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="F223" t="n">
-        <v>2000</v>
+        <v>20664.8263</v>
       </c>
       <c r="G223" t="n">
-        <v>33.20499999999997</v>
+        <v>33.21499999999997</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,24 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="C224" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D224" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E224" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F224" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="G224" t="n">
-        <v>33.19333333333331</v>
+        <v>33.20499999999997</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6209,21 +6883,24 @@
         <v>33</v>
       </c>
       <c r="C225" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="D225" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E225" t="n">
         <v>33</v>
       </c>
       <c r="F225" t="n">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="G225" t="n">
-        <v>33.1833333333333</v>
+        <v>33.19333333333331</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="C226" t="n">
-        <v>32.8</v>
+        <v>33.1</v>
       </c>
       <c r="D226" t="n">
-        <v>32.8</v>
+        <v>33.1</v>
       </c>
       <c r="E226" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="F226" t="n">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="G226" t="n">
-        <v>33.17166666666664</v>
+        <v>33.1833333333333</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="C227" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="D227" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="E227" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="F227" t="n">
-        <v>10800</v>
+        <v>10</v>
       </c>
       <c r="G227" t="n">
-        <v>33.16166666666664</v>
+        <v>33.17166666666664</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,7 +6967,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="C228" t="n">
         <v>33</v>
@@ -6293,15 +6976,18 @@
         <v>33</v>
       </c>
       <c r="E228" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="F228" t="n">
-        <v>33360.7526</v>
+        <v>10800</v>
       </c>
       <c r="G228" t="n">
-        <v>33.14999999999997</v>
+        <v>33.16166666666664</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6313,21 +6999,24 @@
         <v>32.8</v>
       </c>
       <c r="C229" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="D229" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="E229" t="n">
         <v>32.7</v>
       </c>
       <c r="F229" t="n">
-        <v>3902.507</v>
+        <v>33360.7526</v>
       </c>
       <c r="G229" t="n">
-        <v>33.13499999999997</v>
+        <v>33.14999999999997</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>33.1</v>
+        <v>32.8</v>
       </c>
       <c r="C230" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="D230" t="n">
-        <v>33.6</v>
+        <v>32.8</v>
       </c>
       <c r="E230" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="F230" t="n">
-        <v>14125.1257</v>
+        <v>3902.507</v>
       </c>
       <c r="G230" t="n">
-        <v>33.12166666666664</v>
+        <v>33.13499999999997</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,10 +7054,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>33.6</v>
+        <v>33.1</v>
       </c>
       <c r="C231" t="n">
-        <v>33.2</v>
+        <v>32.9</v>
       </c>
       <c r="D231" t="n">
         <v>33.6</v>
@@ -6374,12 +7066,15 @@
         <v>32.9</v>
       </c>
       <c r="F231" t="n">
-        <v>2378.3811</v>
+        <v>14125.1257</v>
       </c>
       <c r="G231" t="n">
-        <v>33.11666666666664</v>
+        <v>33.12166666666664</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,24 +7083,27 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C232" t="n">
         <v>33.2</v>
       </c>
-      <c r="C232" t="n">
-        <v>33</v>
-      </c>
       <c r="D232" t="n">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
       <c r="E232" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F232" t="n">
-        <v>8262.7482</v>
+        <v>2378.3811</v>
       </c>
       <c r="G232" t="n">
-        <v>33.10499999999998</v>
+        <v>33.11666666666664</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="C233" t="n">
         <v>33</v>
       </c>
       <c r="D233" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="E233" t="n">
         <v>33</v>
       </c>
       <c r="F233" t="n">
-        <v>1500</v>
+        <v>8262.7482</v>
       </c>
       <c r="G233" t="n">
-        <v>33.09666666666664</v>
+        <v>33.10499999999998</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6440,24 +7141,27 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="C234" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="D234" t="n">
-        <v>32.9</v>
+        <v>33.1</v>
       </c>
       <c r="E234" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="F234" t="n">
-        <v>3527.7249</v>
+        <v>1500</v>
       </c>
       <c r="G234" t="n">
-        <v>33.08666666666664</v>
+        <v>33.09666666666664</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>33.3</v>
+        <v>32.9</v>
       </c>
       <c r="C235" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="D235" t="n">
-        <v>33.4</v>
+        <v>32.9</v>
       </c>
       <c r="E235" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="F235" t="n">
-        <v>32990.3166</v>
+        <v>3527.7249</v>
       </c>
       <c r="G235" t="n">
-        <v>33.07999999999997</v>
+        <v>33.08666666666664</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,24 +7199,27 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="C236" t="n">
         <v>33.1</v>
       </c>
       <c r="D236" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="E236" t="n">
         <v>33.1</v>
       </c>
       <c r="F236" t="n">
-        <v>14375.4238</v>
+        <v>32990.3166</v>
       </c>
       <c r="G236" t="n">
-        <v>33.0733333333333</v>
+        <v>33.07999999999997</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
       <c r="C237" t="n">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
       <c r="D237" t="n">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
       <c r="E237" t="n">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
       <c r="F237" t="n">
-        <v>10</v>
+        <v>14375.4238</v>
       </c>
       <c r="G237" t="n">
-        <v>33.07666666666664</v>
+        <v>33.0733333333333</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>33.3</v>
+        <v>33.7</v>
       </c>
       <c r="C238" t="n">
-        <v>33.3</v>
+        <v>33.7</v>
       </c>
       <c r="D238" t="n">
-        <v>33.3</v>
+        <v>33.7</v>
       </c>
       <c r="E238" t="n">
-        <v>33.3</v>
+        <v>33.7</v>
       </c>
       <c r="F238" t="n">
-        <v>148.8415</v>
+        <v>10</v>
       </c>
       <c r="G238" t="n">
-        <v>33.0733333333333</v>
+        <v>33.07666666666664</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>33.7</v>
+        <v>33.3</v>
       </c>
       <c r="C239" t="n">
-        <v>33.7</v>
+        <v>33.3</v>
       </c>
       <c r="D239" t="n">
-        <v>33.7</v>
+        <v>33.3</v>
       </c>
       <c r="E239" t="n">
-        <v>33.7</v>
+        <v>33.3</v>
       </c>
       <c r="F239" t="n">
-        <v>50</v>
+        <v>148.8415</v>
       </c>
       <c r="G239" t="n">
-        <v>33.0783333333333</v>
+        <v>33.0733333333333</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6608,12 +7327,15 @@
         <v>33.7</v>
       </c>
       <c r="F240" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G240" t="n">
-        <v>33.08166666666664</v>
+        <v>33.0783333333333</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6634,12 +7356,15 @@
         <v>33.7</v>
       </c>
       <c r="F241" t="n">
-        <v>1852.7893</v>
+        <v>10</v>
       </c>
       <c r="G241" t="n">
-        <v>33.08499999999997</v>
+        <v>33.08166666666664</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6651,21 +7376,24 @@
         <v>33.7</v>
       </c>
       <c r="C242" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="D242" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="E242" t="n">
         <v>33.7</v>
       </c>
       <c r="F242" t="n">
-        <v>6800</v>
+        <v>1852.7893</v>
       </c>
       <c r="G242" t="n">
-        <v>33.09166666666663</v>
+        <v>33.08499999999997</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="C243" t="n">
-        <v>33.4</v>
+        <v>33.8</v>
       </c>
       <c r="D243" t="n">
-        <v>33.4</v>
+        <v>33.8</v>
       </c>
       <c r="E243" t="n">
-        <v>33.4</v>
+        <v>33.7</v>
       </c>
       <c r="F243" t="n">
-        <v>945.5713</v>
+        <v>6800</v>
       </c>
       <c r="G243" t="n">
-        <v>33.09333333333331</v>
+        <v>33.09166666666663</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,24 +7431,27 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>33.8</v>
+        <v>33.4</v>
       </c>
       <c r="C244" t="n">
-        <v>33.8</v>
+        <v>33.4</v>
       </c>
       <c r="D244" t="n">
-        <v>33.8</v>
+        <v>33.4</v>
       </c>
       <c r="E244" t="n">
-        <v>33.8</v>
+        <v>33.4</v>
       </c>
       <c r="F244" t="n">
-        <v>10</v>
+        <v>945.5713</v>
       </c>
       <c r="G244" t="n">
-        <v>33.10166666666664</v>
+        <v>33.09333333333331</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>33.3</v>
+        <v>33.8</v>
       </c>
       <c r="C245" t="n">
-        <v>33.3</v>
+        <v>33.8</v>
       </c>
       <c r="D245" t="n">
-        <v>33.3</v>
+        <v>33.8</v>
       </c>
       <c r="E245" t="n">
-        <v>33.3</v>
+        <v>33.8</v>
       </c>
       <c r="F245" t="n">
-        <v>3200</v>
+        <v>10</v>
       </c>
       <c r="G245" t="n">
-        <v>33.1033333333333</v>
+        <v>33.10166666666664</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="C246" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="D246" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="E246" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="F246" t="n">
-        <v>10</v>
+        <v>3200</v>
       </c>
       <c r="G246" t="n">
-        <v>33.10833333333331</v>
+        <v>33.1033333333333</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,24 +7518,27 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="C247" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="D247" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="E247" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="F247" t="n">
         <v>10</v>
       </c>
       <c r="G247" t="n">
-        <v>33.11499999999997</v>
+        <v>33.10833333333331</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,24 +7547,27 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
       <c r="C248" t="n">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
       <c r="D248" t="n">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
       <c r="E248" t="n">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
       <c r="F248" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G248" t="n">
-        <v>33.1133333333333</v>
+        <v>33.11499999999997</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,24 +7576,27 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="C249" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="D249" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="E249" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="F249" t="n">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="G249" t="n">
-        <v>33.11666666666664</v>
+        <v>33.1133333333333</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,24 +7605,27 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="C250" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="D250" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="E250" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="F250" t="n">
-        <v>1023.244</v>
+        <v>40</v>
       </c>
       <c r="G250" t="n">
-        <v>33.1233333333333</v>
+        <v>33.11666666666664</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6882,24 +7634,27 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="C251" t="n">
-        <v>33.1</v>
+        <v>33.6</v>
       </c>
       <c r="D251" t="n">
-        <v>33.3</v>
+        <v>33.6</v>
       </c>
       <c r="E251" t="n">
-        <v>33.1</v>
+        <v>33.6</v>
       </c>
       <c r="F251" t="n">
-        <v>242696.6385</v>
+        <v>1023.244</v>
       </c>
       <c r="G251" t="n">
-        <v>33.12166666666663</v>
+        <v>33.1233333333333</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="C252" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="D252" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="E252" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="F252" t="n">
-        <v>10</v>
+        <v>242696.6385</v>
       </c>
       <c r="G252" t="n">
-        <v>33.12499999999996</v>
+        <v>33.12166666666663</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6934,25 +7692,28 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="C253" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="D253" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="E253" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="F253" t="n">
-        <v>228891.9515</v>
+        <v>10</v>
       </c>
       <c r="G253" t="n">
-        <v>33.12166666666663</v>
+        <v>33.12499999999996</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -6960,24 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="C254" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="D254" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="E254" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="F254" t="n">
-        <v>4299.9617</v>
+        <v>228891.9515</v>
       </c>
       <c r="G254" t="n">
-        <v>33.12999999999997</v>
+        <v>33.12166666666663</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6989,22 +7753,25 @@
         <v>33.3</v>
       </c>
       <c r="C255" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="D255" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="E255" t="n">
         <v>33.3</v>
       </c>
       <c r="F255" t="n">
-        <v>29856.2709</v>
+        <v>4299.9617</v>
       </c>
       <c r="G255" t="n">
-        <v>33.13166666666663</v>
+        <v>33.12999999999997</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -7015,21 +7782,24 @@
         <v>33.3</v>
       </c>
       <c r="C256" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="D256" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="E256" t="n">
         <v>33.3</v>
       </c>
       <c r="F256" t="n">
-        <v>1000</v>
+        <v>29856.2709</v>
       </c>
       <c r="G256" t="n">
-        <v>33.13666666666663</v>
+        <v>33.13166666666663</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7038,7 +7808,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="C257" t="n">
         <v>33.4</v>
@@ -7047,15 +7817,18 @@
         <v>33.4</v>
       </c>
       <c r="E257" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="F257" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="G257" t="n">
-        <v>33.13999999999997</v>
+        <v>33.13666666666663</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7076,12 +7849,15 @@
         <v>33.4</v>
       </c>
       <c r="F258" t="n">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="G258" t="n">
-        <v>33.1433333333333</v>
+        <v>33.13999999999997</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7090,24 +7866,27 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="C259" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="D259" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="E259" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="F259" t="n">
-        <v>10412.0597</v>
+        <v>3600</v>
       </c>
       <c r="G259" t="n">
         <v>33.1433333333333</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7116,24 +7895,27 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="C260" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="D260" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="E260" t="n">
-        <v>33.4</v>
+        <v>33.1</v>
       </c>
       <c r="F260" t="n">
-        <v>10</v>
+        <v>10412.0597</v>
       </c>
       <c r="G260" t="n">
-        <v>33.14999999999997</v>
+        <v>33.1433333333333</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7154,12 +7936,15 @@
         <v>33.4</v>
       </c>
       <c r="F261" t="n">
-        <v>11.976</v>
+        <v>10</v>
       </c>
       <c r="G261" t="n">
-        <v>33.15499999999997</v>
+        <v>33.14999999999997</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7168,7 +7953,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="C262" t="n">
         <v>33.4</v>
@@ -7177,15 +7962,18 @@
         <v>33.4</v>
       </c>
       <c r="E262" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="F262" t="n">
-        <v>3955.3298</v>
+        <v>11.976</v>
       </c>
       <c r="G262" t="n">
-        <v>33.15833333333331</v>
+        <v>33.15499999999997</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7194,24 +7982,27 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="C263" t="n">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="D263" t="n">
         <v>33.4</v>
       </c>
       <c r="E263" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="F263" t="n">
-        <v>14029.6394</v>
+        <v>3955.3298</v>
       </c>
       <c r="G263" t="n">
-        <v>33.15999999999998</v>
+        <v>33.15833333333331</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7220,24 +8011,27 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="C264" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="D264" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="E264" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="F264" t="n">
-        <v>1851.4144</v>
+        <v>14029.6394</v>
       </c>
       <c r="G264" t="n">
-        <v>33.16333333333331</v>
+        <v>33.15999999999998</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7246,24 +8040,27 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="C265" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="D265" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="E265" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="F265" t="n">
-        <v>4000</v>
+        <v>1851.4144</v>
       </c>
       <c r="G265" t="n">
-        <v>33.16999999999997</v>
+        <v>33.16333333333331</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7275,21 +8072,24 @@
         <v>33.4</v>
       </c>
       <c r="C266" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="D266" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="E266" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="F266" t="n">
-        <v>5010</v>
+        <v>4000</v>
       </c>
       <c r="G266" t="n">
-        <v>33.17333333333331</v>
+        <v>33.16999999999997</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7298,7 +8098,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="C267" t="n">
         <v>33.3</v>
@@ -7310,12 +8110,15 @@
         <v>33.3</v>
       </c>
       <c r="F267" t="n">
-        <v>12810</v>
+        <v>5010</v>
       </c>
       <c r="G267" t="n">
-        <v>33.17833333333331</v>
+        <v>33.17333333333331</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7324,24 +8127,27 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="C268" t="n">
         <v>33.3</v>
       </c>
       <c r="D268" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="E268" t="n">
         <v>33.3</v>
       </c>
       <c r="F268" t="n">
-        <v>11853.4871</v>
+        <v>12810</v>
       </c>
       <c r="G268" t="n">
-        <v>33.17999999999997</v>
+        <v>33.17833333333331</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7362,12 +8168,15 @@
         <v>33.3</v>
       </c>
       <c r="F269" t="n">
-        <v>40000.0933</v>
+        <v>11853.4871</v>
       </c>
       <c r="G269" t="n">
-        <v>33.18499999999997</v>
+        <v>33.17999999999997</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7379,21 +8188,24 @@
         <v>33.3</v>
       </c>
       <c r="C270" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="D270" t="n">
         <v>33.3</v>
       </c>
       <c r="E270" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="F270" t="n">
-        <v>12200</v>
+        <v>40000.0933</v>
       </c>
       <c r="G270" t="n">
-        <v>33.1883333333333</v>
+        <v>33.18499999999997</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7414,12 +8226,15 @@
         <v>33.2</v>
       </c>
       <c r="F271" t="n">
-        <v>2155.6752</v>
+        <v>12200</v>
       </c>
       <c r="G271" t="n">
-        <v>33.19999999999997</v>
+        <v>33.1883333333333</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7428,24 +8243,27 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C272" t="n">
         <v>33.2</v>
       </c>
-      <c r="C272" t="n">
-        <v>33.5</v>
-      </c>
       <c r="D272" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="E272" t="n">
         <v>33.2</v>
       </c>
       <c r="F272" t="n">
-        <v>2584.4526</v>
+        <v>2155.6752</v>
       </c>
       <c r="G272" t="n">
-        <v>33.20833333333331</v>
+        <v>33.19999999999997</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7457,21 +8275,24 @@
         <v>33.2</v>
       </c>
       <c r="C273" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="D273" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="E273" t="n">
         <v>33.2</v>
       </c>
       <c r="F273" t="n">
-        <v>1322.0845</v>
+        <v>2584.4526</v>
       </c>
       <c r="G273" t="n">
-        <v>33.21166666666664</v>
+        <v>33.20833333333331</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7480,24 +8301,27 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="C274" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="D274" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="E274" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="F274" t="n">
-        <v>10</v>
+        <v>1322.0845</v>
       </c>
       <c r="G274" t="n">
-        <v>33.22499999999997</v>
+        <v>33.21166666666664</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7506,7 +8330,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="C275" t="n">
         <v>33.5</v>
@@ -7515,15 +8339,18 @@
         <v>33.5</v>
       </c>
       <c r="E275" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="F275" t="n">
-        <v>2448.368</v>
+        <v>10</v>
       </c>
       <c r="G275" t="n">
-        <v>33.23499999999997</v>
+        <v>33.22499999999997</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7532,7 +8359,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="C276" t="n">
         <v>33.5</v>
@@ -7541,15 +8368,18 @@
         <v>33.5</v>
       </c>
       <c r="E276" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="F276" t="n">
-        <v>5500</v>
+        <v>2448.368</v>
       </c>
       <c r="G276" t="n">
-        <v>33.24666666666664</v>
+        <v>33.23499999999997</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7561,21 +8391,24 @@
         <v>33.5</v>
       </c>
       <c r="C277" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="D277" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="E277" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="F277" t="n">
-        <v>4123.6357</v>
+        <v>5500</v>
       </c>
       <c r="G277" t="n">
-        <v>33.25166666666664</v>
+        <v>33.24666666666664</v>
       </c>
       <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7584,24 +8417,27 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="C278" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="D278" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="E278" t="n">
         <v>33.3</v>
       </c>
       <c r="F278" t="n">
-        <v>985.1155</v>
+        <v>4123.6357</v>
       </c>
       <c r="G278" t="n">
-        <v>33.26333333333331</v>
+        <v>33.25166666666664</v>
       </c>
       <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7610,7 +8446,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="C279" t="n">
         <v>33.5</v>
@@ -7619,15 +8455,18 @@
         <v>33.5</v>
       </c>
       <c r="E279" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="F279" t="n">
-        <v>803.2913</v>
+        <v>985.1155</v>
       </c>
       <c r="G279" t="n">
-        <v>33.27666666666664</v>
+        <v>33.26333333333331</v>
       </c>
       <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7639,21 +8478,24 @@
         <v>33.2</v>
       </c>
       <c r="C280" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="D280" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="E280" t="n">
         <v>33.2</v>
       </c>
       <c r="F280" t="n">
-        <v>33399.7653</v>
+        <v>803.2913</v>
       </c>
       <c r="G280" t="n">
-        <v>33.28499999999998</v>
+        <v>33.27666666666664</v>
       </c>
       <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7662,24 +8504,27 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="C281" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="D281" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="E281" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="F281" t="n">
-        <v>10</v>
+        <v>33399.7653</v>
       </c>
       <c r="G281" t="n">
-        <v>33.29499999999997</v>
+        <v>33.28499999999998</v>
       </c>
       <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7688,24 +8533,27 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="C282" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="D282" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="E282" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="F282" t="n">
-        <v>921.7138</v>
+        <v>10</v>
       </c>
       <c r="G282" t="n">
-        <v>33.29999999999997</v>
+        <v>33.29499999999997</v>
       </c>
       <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7714,544 +8562,27 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="C283" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="D283" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="E283" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="F283" t="n">
-        <v>10</v>
+        <v>921.7138</v>
       </c>
       <c r="G283" t="n">
-        <v>33.30999999999997</v>
+        <v>33.29999999999997</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C284" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D284" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E284" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F284" t="n">
-        <v>1113.2409</v>
-      </c>
-      <c r="G284" t="n">
-        <v>33.3133333333333</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="C285" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="D285" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="E285" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="F285" t="n">
-        <v>1776</v>
-      </c>
-      <c r="G285" t="n">
-        <v>33.31833333333331</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="C286" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="D286" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="E286" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="F286" t="n">
-        <v>1397.3809</v>
-      </c>
-      <c r="G286" t="n">
-        <v>33.32666666666664</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C287" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D287" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E287" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F287" t="n">
-        <v>1906.5136</v>
-      </c>
-      <c r="G287" t="n">
-        <v>33.32999999999997</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C288" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D288" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E288" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F288" t="n">
-        <v>1412.7785</v>
-      </c>
-      <c r="G288" t="n">
-        <v>33.33333333333331</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C289" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D289" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E289" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F289" t="n">
-        <v>30210.0193</v>
-      </c>
-      <c r="G289" t="n">
-        <v>33.34166666666664</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C290" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D290" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E290" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F290" t="n">
-        <v>18201.2903</v>
-      </c>
-      <c r="G290" t="n">
-        <v>33.34666666666664</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C291" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D291" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E291" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F291" t="n">
-        <v>25800</v>
-      </c>
-      <c r="G291" t="n">
-        <v>33.34499999999997</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C292" t="n">
-        <v>33</v>
-      </c>
-      <c r="D292" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E292" t="n">
-        <v>33</v>
-      </c>
-      <c r="F292" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G292" t="n">
-        <v>33.34499999999997</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>33</v>
-      </c>
-      <c r="C293" t="n">
-        <v>33</v>
-      </c>
-      <c r="D293" t="n">
-        <v>33</v>
-      </c>
-      <c r="E293" t="n">
-        <v>33</v>
-      </c>
-      <c r="F293" t="n">
-        <v>24471.9</v>
-      </c>
-      <c r="G293" t="n">
-        <v>33.34499999999997</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C294" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D294" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E294" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F294" t="n">
-        <v>3200</v>
-      </c>
-      <c r="G294" t="n">
-        <v>33.34499999999997</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C295" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D295" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E295" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F295" t="n">
-        <v>10</v>
-      </c>
-      <c r="G295" t="n">
-        <v>33.34666666666664</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C296" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D296" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E296" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="F296" t="n">
-        <v>3500.9666</v>
-      </c>
-      <c r="G296" t="n">
-        <v>33.34166666666664</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>33</v>
-      </c>
-      <c r="C297" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D297" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E297" t="n">
-        <v>33</v>
-      </c>
-      <c r="F297" t="n">
-        <v>5434.9244</v>
-      </c>
-      <c r="G297" t="n">
-        <v>33.33166666666664</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C298" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D298" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E298" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F298" t="n">
-        <v>29753.395</v>
-      </c>
-      <c r="G298" t="n">
-        <v>33.3283333333333</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C299" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D299" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E299" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F299" t="n">
-        <v>107393.5391</v>
-      </c>
-      <c r="G299" t="n">
-        <v>33.31999999999997</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="C300" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="D300" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="E300" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F300" t="n">
-        <v>3166.9921</v>
-      </c>
-      <c r="G300" t="n">
-        <v>33.31166666666664</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="C301" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="D301" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="E301" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="F301" t="n">
-        <v>940.4906</v>
-      </c>
-      <c r="G301" t="n">
-        <v>33.30499999999997</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="C302" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="D302" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="E302" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="F302" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="G302" t="n">
-        <v>33.29999999999997</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="C303" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D303" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="E303" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F303" t="n">
-        <v>3393.9122</v>
-      </c>
-      <c r="G303" t="n">
-        <v>33.29499999999997</v>
-      </c>
-      <c r="H303" t="n">
+      <c r="I283" t="n">
         <v>0</v>
       </c>
     </row>
